--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YORY3R\Tools\Programs\food-nutrition\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YORY3R\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC7B0C-7E9B-4CA4-9544-489991EF990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B900EE-7724-4BC2-8022-C9D02B3A5B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Karbohidrat (g)</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Rempah Bawang Putih</t>
   </si>
   <si>
-    <t>Susu Finaflex Isolate Premium</t>
-  </si>
-  <si>
     <t>Sayur Sawi Putih</t>
   </si>
   <si>
@@ -202,6 +199,27 @@
   </si>
   <si>
     <t>Kalori (kal)</t>
+  </si>
+  <si>
+    <t>Kedelai Edamame</t>
+  </si>
+  <si>
+    <t>Rempah Bawang Bombay</t>
+  </si>
+  <si>
+    <t>Kacang Almond</t>
+  </si>
+  <si>
+    <t>Kedelai Tempe</t>
+  </si>
+  <si>
+    <t>Kedelai Tahu</t>
+  </si>
+  <si>
+    <t>Suplemen Finaflex Isolate Premium</t>
+  </si>
+  <si>
+    <t>Suplemen Evolene Crevolene</t>
   </si>
 </sst>
 </file>
@@ -341,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -377,6 +395,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,10 +849,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A3B1B45-D42A-4569-A584-D88DFAE114C9}" name="Makanan" displayName="Makanan" ref="A1:J50" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J50" xr:uid="{0A3B1B45-D42A-4569-A584-D88DFAE114C9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J50">
-    <sortCondition ref="A1:A50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A3B1B45-D42A-4569-A584-D88DFAE114C9}" name="Makanan" displayName="Makanan" ref="A1:J56" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J56" xr:uid="{0A3B1B45-D42A-4569-A584-D88DFAE114C9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J56">
+    <sortCondition ref="A1:A56"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{26B9A21E-4CE3-4EA3-9D41-0F41E1C43AF5}" name="Makanan" dataDxfId="9"/>
@@ -1117,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -1158,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -1780,7 +1804,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3">
         <v>100</v>
@@ -2060,1079 +2084,1319 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3">
+        <f>578/100</f>
+        <v>5.78</v>
+      </c>
+      <c r="D24" s="3">
+        <f>19.74/100</f>
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <f>21.26/100</f>
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="F24" s="3">
+        <f>50.64/100</f>
+        <v>0.50639999999999996</v>
+      </c>
+      <c r="G24" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
+        <v>578</v>
+      </c>
+      <c r="H24" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
+        <v>19.739999999999998</v>
+      </c>
+      <c r="I24" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
+        <v>21.26</v>
+      </c>
+      <c r="J24" s="14">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
+        <v>50.639999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3">
+        <f>81/100</f>
+        <v>0.81</v>
+      </c>
+      <c r="D25" s="3">
+        <f>6.53/100</f>
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <f>8.47/100</f>
+        <v>8.4700000000000011E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <f>4.45/100</f>
+        <v>4.4500000000000005E-2</v>
+      </c>
+      <c r="G25" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
+        <v>81</v>
+      </c>
+      <c r="H25" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
+        <v>6.5299999999999994</v>
+      </c>
+      <c r="I25" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="J25" s="14">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <f>78/100</f>
+        <v>0.78</v>
+      </c>
+      <c r="D26" s="3">
+        <f>2.1/100</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <f>7.97/100</f>
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <f>4.95/100</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="G26" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
+        <v>78</v>
+      </c>
+      <c r="H26" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
+        <v>2.1</v>
+      </c>
+      <c r="I26" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
+        <v>7.9699999999999989</v>
+      </c>
+      <c r="J26" s="14">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3">
+        <f>193/100</f>
+        <v>1.93</v>
+      </c>
+      <c r="D27" s="3">
+        <f>9.39/100</f>
+        <v>9.3900000000000011E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <f>18.54/100</f>
+        <v>0.18539999999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <f>10.8/100</f>
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="G27" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
+        <v>193</v>
+      </c>
+      <c r="H27" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
+        <v>9.39</v>
+      </c>
+      <c r="I27" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
+        <v>18.54</v>
+      </c>
+      <c r="J27" s="14">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3">
+        <f>40/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="3">
+        <f>9.63/100</f>
+        <v>9.6300000000000011E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <f>0.88/100</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="F28" s="3">
+        <f>0.08/100</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G28" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
+        <v>40</v>
+      </c>
+      <c r="H28" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I28" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
+        <v>0.88</v>
+      </c>
+      <c r="J28" s="14">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B29" s="3">
         <v>10</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C29" s="3">
         <f>42/100</f>
         <v>0.42</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D29" s="3">
         <f>10.11/100</f>
         <v>0.1011</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E29" s="3">
         <f>0.92/100</f>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F29" s="3">
         <f>0.08/100</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G29" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>4.2</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H29" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>1.0109999999999999</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I29" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J29" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B30" s="3">
         <v>10</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C30" s="3">
         <f>149/100</f>
         <v>1.49</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D30" s="3">
         <f>33.06/100</f>
         <v>0.3306</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E30" s="3">
         <f>6.36/100</f>
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F30" s="3">
         <f>0.5/100</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G30" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>14.9</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H30" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>3.306</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I30" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>0.63600000000000001</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J30" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B31" s="3">
         <v>10</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C31" s="3">
         <f>318/100</f>
         <v>3.18</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D31" s="3">
         <f>56.63/100</f>
         <v>0.56630000000000003</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E31" s="3">
         <f>12.01/100</f>
         <v>0.1201</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F31" s="3">
         <f>17.27/100</f>
         <v>0.17269999999999999</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G31" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>31.8</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H31" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>5.6630000000000003</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I31" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>1.2010000000000001</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J31" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>1.7269999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B32" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C32" s="3">
         <f>80/100</f>
         <v>0.8</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D32" s="3">
         <f>17.77/100</f>
         <v>0.1777</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E32" s="3">
         <f>1.82/100</f>
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F32" s="3">
         <f>0.75/100</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G32" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>4</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H32" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>0.88849999999999996</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I32" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J32" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C33" s="3">
         <f>354/100</f>
         <v>3.54</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D33" s="3">
         <f>64.93/100</f>
         <v>0.6493000000000001</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E33" s="3">
         <f>7.83/100</f>
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F33" s="3">
         <f>9.88/100</f>
         <v>9.8800000000000013E-2</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G33" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>17.7</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H33" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>3.2465000000000006</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I33" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>0.39149999999999996</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J33" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.49400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B34" s="3">
         <v>3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C34" s="3">
         <f>10/3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D34" s="3">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G34" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>10</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H34" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I34" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>0</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J34" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B35" s="3">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C35" s="3">
         <f>20/5</f>
         <v>4</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D35" s="3">
         <f>4/5</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E35" s="3">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F35" s="3">
         <f>0/5</f>
         <v>0</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G35" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>20</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H35" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I35" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>1</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J35" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B36" s="3">
         <v>4.5</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C36" s="3">
         <f>15/4.5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D36" s="3">
         <f>2/4.5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E36" s="3">
         <f>2/4.5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F36" s="3">
         <f>0/4.5</f>
         <v>0</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G36" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>15</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H36" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>2</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I36" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>2</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J36" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3">
-        <v>100</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B37" s="3">
+        <v>100</v>
+      </c>
+      <c r="C37" s="3">
         <f>23/100</f>
         <v>0.23</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D37" s="3">
         <f>3.63/100</f>
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E37" s="3">
         <f>2.86/100</f>
         <v>2.86E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F37" s="3">
         <f>0.39/100</f>
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G37" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>23</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H37" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>3.63</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I37" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>2.86</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J37" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.39</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3">
-        <v>100</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B38" s="3">
+        <v>100</v>
+      </c>
+      <c r="C38" s="3">
         <f>34/100</f>
         <v>0.34</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D38" s="3">
         <f>6.64/100</f>
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E38" s="3">
         <f>2.82/100</f>
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F38" s="3">
         <f>0.37/100</f>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G38" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>34</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H38" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>6.64</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I38" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>2.82</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J38" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="3">
-        <v>100</v>
-      </c>
-      <c r="C34" s="3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="3">
+        <v>100</v>
+      </c>
+      <c r="C39" s="3">
         <f>31/100</f>
         <v>0.31</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D39" s="3">
         <f>7.13/100</f>
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E39" s="3">
         <f>1.82/100</f>
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F39" s="3">
         <f>0.12/100</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G39" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>31</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H39" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>7.13</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I39" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>1.82</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J39" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="3">
-        <v>100</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B40" s="3">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3">
         <f>38/100</f>
         <v>0.38</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D40" s="3">
         <f>7.25/100</f>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E40" s="3">
         <f>3.66/100</f>
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F40" s="3">
         <f>0.29/100</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G40" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>38</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H40" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>7.2499999999999991</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I40" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>3.66</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J40" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="3">
-        <v>100</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B41" s="3">
+        <v>100</v>
+      </c>
+      <c r="C41" s="3">
         <f>29/100</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D41" s="3">
         <f>4.69/100</f>
         <v>4.6900000000000004E-2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E41" s="3">
         <f>3.59/100</f>
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F41" s="3">
         <f>0.48/100</f>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G41" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>28.999999999999996</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H41" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I41" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>3.5900000000000003</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J41" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.48</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="3">
-        <v>100</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B42" s="3">
+        <v>100</v>
+      </c>
+      <c r="C42" s="3">
         <f>25/100</f>
         <v>0.25</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D42" s="3">
         <f>5.3/100</f>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E42" s="3">
         <f>1.98/100</f>
         <v>1.9799999999999998E-2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F42" s="3">
         <f>0.1/100</f>
         <v>1E-3</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G42" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>25</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H42" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>5.3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I42" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>1.9799999999999998</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J42" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="3">
-        <v>100</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B43" s="4">
+        <v>100</v>
+      </c>
+      <c r="C43" s="4">
         <f>17/100</f>
         <v>0.17</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D43" s="4">
         <f>3.9/100</f>
         <v>3.9E-2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E43" s="4">
         <f>0.82/100</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F43" s="4">
         <f>0.13/100</f>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G43" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>17</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H43" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>3.9</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I43" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>0.81999999999999984</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J43" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="3">
-        <v>100</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B44" s="4">
+        <v>100</v>
+      </c>
+      <c r="C44" s="4">
         <f>26/100</f>
         <v>0.26</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D44" s="4">
         <f>6.03/100</f>
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E44" s="4">
         <f>0.99/100</f>
         <v>9.8999999999999991E-3</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F44" s="4">
         <f>0.3/100</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G44" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>26</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H44" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>6.03</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I44" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>0.98999999999999988</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J44" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="3">
-        <v>100</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B45" s="3">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3">
         <f>91/100</f>
         <v>0.91</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D45" s="3">
         <f>16.62/100</f>
         <v>0.16620000000000001</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E45" s="3">
         <f>6.58/100</f>
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F45" s="3">
         <f>0.37/100</f>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G45" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>91</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H45" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>16.62</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I45" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>6.58</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J45" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.37</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="3">
-        <v>100</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B46" s="3">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3">
         <f>13/100</f>
         <v>0.13</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D46" s="3">
         <f>2.18/100</f>
         <v>2.18E-2</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E46" s="3">
         <f>1.5/100</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F46" s="3">
         <f>0.2/100</f>
         <v>2E-3</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G46" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>13</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H46" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>2.1800000000000002</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I46" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>1.5</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J46" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="3">
-        <v>100</v>
-      </c>
-      <c r="C42" s="3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3">
         <f>12/100</f>
         <v>0.12</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D47" s="3">
         <f>2.23/100</f>
         <v>2.23E-2</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E47" s="3">
         <f>1.1/100</f>
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F47" s="3">
         <f>0.17/100</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G47" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>12</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H47" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>2.23</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I47" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J47" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="4">
-        <v>100</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="B48" s="3">
+        <v>100</v>
+      </c>
+      <c r="C48" s="3">
         <f>18/100</f>
         <v>0.18</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D48" s="3">
         <f>3.92/100</f>
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E48" s="3">
         <f>0.88/100</f>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F48" s="3">
         <f>0.2/100</f>
         <v>2E-3</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G48" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>18</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H48" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>3.92</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I48" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>0.88</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J48" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="4">
-        <v>100</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B49" s="3">
+        <v>100</v>
+      </c>
+      <c r="C49" s="3">
         <f>41/100</f>
         <v>0.41</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D49" s="3">
         <f>9.58/100</f>
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E49" s="3">
         <f>0.93/100</f>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F49" s="3">
         <f>0.24/100</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G49" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>41</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H49" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>9.58</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I49" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>0.93</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J49" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C50" s="3">
+        <f>20/5.5</f>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="D50" s="3">
+        <f>0/5.5</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <f>5/5.5</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F50" s="3">
+        <f>0/5.5</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
+        <v>20</v>
+      </c>
+      <c r="H50" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
+        <v>5</v>
+      </c>
+      <c r="J50" s="14">
+        <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="3">
         <v>29.15</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C51" s="3">
         <f>110/29.15</f>
         <v>3.7735849056603774</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D51" s="3">
         <f>1/29.15</f>
         <v>3.430531732418525E-2</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E51" s="3">
         <f>25/29.15</f>
         <v>0.85763293310463129</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F51" s="3">
         <f>0/29.15</f>
         <v>0</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G51" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>110</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H51" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>1</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I51" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>25</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J51" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="3">
-        <v>100</v>
-      </c>
-      <c r="C46" s="3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3">
+        <v>100</v>
+      </c>
+      <c r="C52" s="3">
         <f>52/100</f>
         <v>0.52</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D52" s="3">
         <f>0.73/100</f>
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E52" s="3">
         <f>10.9/100</f>
         <v>0.109</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F52" s="3">
         <f>0.17/100</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G52" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>52</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H52" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>0.73</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I52" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>10.9</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J52" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="3">
-        <v>100</v>
-      </c>
-      <c r="C47" s="3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>100</v>
+      </c>
+      <c r="C53" s="3">
         <f>147/100</f>
         <v>1.47</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D53" s="3">
         <f>0.77/100</f>
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E53" s="3">
         <f>12.58/100</f>
         <v>0.1258</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F53" s="3">
         <f>9.94/100</f>
         <v>9.9399999999999988E-2</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G53" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>147</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H53" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>0.77</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I53" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>12.58</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J53" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>9.94</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="3">
-        <v>100</v>
-      </c>
-      <c r="C48" s="3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>100</v>
+      </c>
+      <c r="C54" s="3">
         <f>185/100</f>
         <v>1.85</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D54" s="3">
         <f>1.45/100</f>
         <v>1.4499999999999999E-2</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E54" s="3">
         <f>12.81/100</f>
         <v>0.12809999999999999</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F54" s="3">
         <f>13.77/100</f>
         <v>0.13769999999999999</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G54" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>185</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H54" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>1.45</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I54" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>12.809999999999999</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J54" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>13.77</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="3">
-        <v>100</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B55" s="3">
+        <v>100</v>
+      </c>
+      <c r="C55" s="3">
         <f>76/100</f>
         <v>0.76</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D55" s="3">
         <f>17.72/100</f>
         <v>0.1772</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E55" s="3">
         <f>1.37/100</f>
         <v>1.37E-2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F55" s="3">
         <f>0.14/100</f>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G55" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>76</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H55" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>17.72</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I55" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>1.37</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J55" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="3">
-        <v>100</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="B56" s="3">
+        <v>100</v>
+      </c>
+      <c r="C56" s="3">
         <f>82/100</f>
         <v>0.82</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D56" s="3">
         <f>18.26/100</f>
         <v>0.18260000000000001</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E56" s="3">
         <f>2.36/100</f>
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F56" s="3">
         <f>0.05/100</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G56" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Kalori (kal)]]</f>
         <v>82</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H56" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Karbohidrat (g)]]</f>
         <v>18.260000000000002</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I56" s="2">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Protein (g)]]</f>
         <v>2.36</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J56" s="6">
         <f>Makanan[[#This Row],[Komposisi (g)]]*Makanan[[#This Row],[Lemak (g)]]</f>
         <v>0.05</v>
       </c>
